--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ContactPoint</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ContactPoint|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -345,7 +345,7 @@
     <t>emailType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -345,7 +345,7 @@
     <t>emailType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-contact-point.xlsx
+++ b/main/ig/StructureDefinition-fr-core-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
